--- a/warnings_per_program.xlsx
+++ b/warnings_per_program.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,85 +473,80 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Build configuration issues</t>
+          <t>Compatibility issues</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Compatibility issues</t>
+          <t>Convention violation</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>Convention violation</t>
+          <t>Documentation issues</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>Documentation issues</t>
+          <t>Error handling issues</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>Error handling issues</t>
+          <t>Inflexible code</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>Inflexible code</t>
+          <t>Logical issues</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>Logical issues</t>
+          <t>Memory safety</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Memory safety</t>
+          <t>Misleading code</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>Misleading code</t>
+          <t>Non-idiomatic</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>Non-idiomatic</t>
+          <t>Non-production code</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>Non-production code</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Readability issues</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>Readability issues</t>
+          <t>Redundant</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Redundant</t>
+          <t>Runtime panic risks</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>Runtime panic risks</t>
+          <t>Thread safety</t>
         </is>
       </c>
       <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>Thread safety</t>
-        </is>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
         <is>
           <t>Type safety</t>
         </is>
@@ -576,51 +571,48 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1037</v>
+        <v>2</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>821</v>
+        <v>317</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
         <v>218</v>
       </c>
     </row>
@@ -643,51 +635,48 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>1142</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>813</v>
+        <v>347</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="n">
         <v>288</v>
       </c>
     </row>
@@ -710,51 +699,48 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>717</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>652</v>
+        <v>265</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="n">
         <v>214</v>
       </c>
     </row>
@@ -777,51 +763,48 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>1737</v>
+        <v>6</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0</v>
+        <v>1345</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1345</v>
+        <v>507</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="n">
         <v>526</v>
       </c>
     </row>
@@ -844,51 +827,48 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>1714</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1477</v>
+        <v>6713</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>6713</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2" t="n">
         <v>538</v>
       </c>
     </row>
@@ -911,51 +891,48 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>1140</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>812</v>
+        <v>294</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2" t="n">
         <v>245</v>
       </c>
     </row>
@@ -978,51 +955,48 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="H10" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="K10" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1261</v>
       </c>
       <c r="M10" t="n">
-        <v>1261</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="Q10" t="n">
-        <v>825</v>
+        <v>370</v>
       </c>
       <c r="R10" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
         <v>267</v>
       </c>
     </row>
@@ -1056,85 +1030,80 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>Build configuration issues</t>
+          <t>Compatibility issues</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>Compatibility issues</t>
+          <t>Convention violation</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>Convention violation</t>
+          <t>Documentation issues</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>Documentation issues</t>
+          <t>Error handling issues</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>Error handling issues</t>
+          <t>Inflexible code</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>Inflexible code</t>
+          <t>Logical issues</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>Logical issues</t>
+          <t>Memory safety</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>Memory safety</t>
+          <t>Misleading code</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>Misleading code</t>
+          <t>Non-idiomatic</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t>Non-idiomatic</t>
+          <t>Non-production code</t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>Non-production code</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Readability issues</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>Readability issues</t>
+          <t>Redundant</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Redundant</t>
+          <t>Runtime panic risks</t>
         </is>
       </c>
       <c r="S15" s="1" t="inlineStr">
         <is>
-          <t>Runtime panic risks</t>
+          <t>Thread safety</t>
         </is>
       </c>
       <c r="T15" s="1" t="inlineStr">
-        <is>
-          <t>Thread safety</t>
-        </is>
-      </c>
-      <c r="U15" s="1" t="inlineStr">
         <is>
           <t>Type safety</t>
         </is>
@@ -1189,21 +1158,18 @@
         <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>406</v>
+        <v>15</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,51 +1192,48 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>6</v>
+        <v>898</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>898</v>
+        <v>3</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>725</v>
+        <v>194</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2" t="n">
         <v>205</v>
       </c>
     </row>
@@ -1293,51 +1256,48 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="K18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>99</v>
-      </c>
       <c r="L18" s="2" t="n">
-        <v>8</v>
+        <v>604</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>604</v>
+        <v>2</v>
       </c>
       <c r="N18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" s="2" t="n">
-        <v>2</v>
+        <v>611</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>611</v>
+        <v>150</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2" t="n">
         <v>159</v>
       </c>
     </row>
@@ -1360,51 +1320,48 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>1489</v>
+      </c>
+      <c r="M19" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>214</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>1489</v>
-      </c>
       <c r="N19" s="2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1095</v>
+        <v>327</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2" t="n">
         <v>434</v>
       </c>
     </row>
@@ -1427,51 +1384,48 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>7</v>
+        <v>1287</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>1287</v>
+        <v>14</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1</v>
+        <v>1165</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1165</v>
+        <v>6334</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>6334</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2" t="n">
         <v>438</v>
       </c>
     </row>
@@ -1494,51 +1448,48 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="L21" s="2" t="n">
+        <v>989</v>
+      </c>
+      <c r="M21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="M21" s="2" t="n">
-        <v>989</v>
-      </c>
       <c r="N21" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>726</v>
+        <v>160</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2" t="n">
         <v>179</v>
       </c>
     </row>
@@ -1561,58 +1512,55 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
+        <v>53</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>118</v>
+      </c>
+      <c r="K22" t="n">
         <v>8</v>
       </c>
-      <c r="H22" t="n">
-        <v>53</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>19</v>
-      </c>
-      <c r="K22" t="n">
-        <v>118</v>
-      </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>1022</v>
       </c>
       <c r="M22" t="n">
-        <v>1022</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>765</v>
       </c>
       <c r="Q22" t="n">
-        <v>765</v>
+        <v>216</v>
       </c>
       <c r="R22" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
         <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HUMAN_WRITTEN</t>
+          <t>C2SAFERUSTV2</t>
         </is>
       </c>
     </row>
@@ -1639,85 +1587,80 @@
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>Build configuration issues</t>
+          <t>Compatibility issues</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>Compatibility issues</t>
+          <t>Convention violation</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>Convention violation</t>
+          <t>Documentation issues</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>Documentation issues</t>
+          <t>Error handling issues</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>Error handling issues</t>
+          <t>Inflexible code</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>Inflexible code</t>
+          <t>Logical issues</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>Logical issues</t>
+          <t>Memory safety</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>Memory safety</t>
+          <t>Misleading code</t>
         </is>
       </c>
       <c r="M27" s="1" t="inlineStr">
         <is>
-          <t>Misleading code</t>
+          <t>Non-idiomatic</t>
         </is>
       </c>
       <c r="N27" s="1" t="inlineStr">
         <is>
-          <t>Non-idiomatic</t>
+          <t>Non-production code</t>
         </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>Non-production code</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Readability issues</t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr">
         <is>
-          <t>Readability issues</t>
+          <t>Redundant</t>
         </is>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Redundant</t>
+          <t>Runtime panic risks</t>
         </is>
       </c>
       <c r="S27" s="1" t="inlineStr">
         <is>
-          <t>Runtime panic risks</t>
+          <t>Thread safety</t>
         </is>
       </c>
       <c r="T27" s="1" t="inlineStr">
-        <is>
-          <t>Thread safety</t>
-        </is>
-      </c>
-      <c r="U27" s="1" t="inlineStr">
         <is>
           <t>Type safety</t>
         </is>
@@ -1730,64 +1673,61 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>23184</v>
+        <v>2575</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1797,64 +1737,61 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>23920</v>
+        <v>3244</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -1864,64 +1801,61 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>22457</v>
+        <v>1879</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1931,63 +1865,60 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>25595</v>
+        <v>4755</v>
       </c>
       <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="n">
+      <c r="K31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2" t="n">
+      <c r="Q31" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Q31" s="2" t="n">
-        <v>24</v>
-      </c>
       <c r="R31" s="2" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1998,64 +1929,61 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>25602</v>
+        <v>6954</v>
       </c>
       <c r="C32" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>10</v>
-      </c>
       <c r="L32" s="2" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="M32" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" s="2" t="n">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>27</v>
+        <v>5995</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -2065,64 +1993,61 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>22726</v>
+        <v>2378</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="M33" s="2" t="n">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -2132,63 +2057,617 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23039</v>
+        <v>1605</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>24</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>121</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>28</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>20</v>
       </c>
-      <c r="E34" t="n">
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HUMAN_WRITTEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Program</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Arithmetic issues</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Attribute issues</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>Compatibility issues</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>Convention violation</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>Documentation issues</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>Error handling issues</t>
+        </is>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>Inflexible code</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
+          <t>Logical issues</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>Memory safety</t>
+        </is>
+      </c>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>Misleading code</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="inlineStr">
+        <is>
+          <t>Non-idiomatic</t>
+        </is>
+      </c>
+      <c r="N39" s="1" t="inlineStr">
+        <is>
+          <t>Non-production code</t>
+        </is>
+      </c>
+      <c r="O39" s="1" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="P39" s="1" t="inlineStr">
+        <is>
+          <t>Readability issues</t>
+        </is>
+      </c>
+      <c r="Q39" s="1" t="inlineStr">
+        <is>
+          <t>Redundant</t>
+        </is>
+      </c>
+      <c r="R39" s="1" t="inlineStr">
+        <is>
+          <t>Runtime panic risks</t>
+        </is>
+      </c>
+      <c r="S39" s="1" t="inlineStr">
+        <is>
+          <t>Thread safety</t>
+        </is>
+      </c>
+      <c r="T39" s="1" t="inlineStr">
+        <is>
+          <t>Type safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>890</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1626</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="J41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H34" t="n">
+      <c r="K41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P41" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>pwd</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>split</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>3301</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>tail</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>3308</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>truncate</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>uniq</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>745</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
         <v>57</v>
       </c>
-      <c r="I34" t="n">
+      <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
+      <c r="I46" t="n">
         <v>8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="J46" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>2</v>
       </c>
-      <c r="N34" t="n">
+      <c r="M46" t="n">
         <v>2</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>10</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="P46" t="n">
         <v>22</v>
       </c>
-      <c r="R34" t="n">
+      <c r="Q46" t="n">
         <v>201</v>
       </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>0</v>
       </c>
     </row>
